--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{465CD5CB-C221-4A0F-A3A2-BEE22D3EA6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2EFF74-EB5A-407C-ACF8-1A375A64DD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1470" windowWidth="19200" windowHeight="11730" xr2:uid="{3EDA074E-1CCD-4CC1-BDC5-88C9413BA1F0}"/>
+    <workbookView xWindow="5460" yWindow="1300" windowWidth="19200" windowHeight="11730" xr2:uid="{1B22ACFB-CC4E-4D9A-8FAB-30CF6FEE85A3}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">    シート２</t>
   </si>
   <si>
-    <t xml:space="preserve">たいとるB </t>
+    <t>bbb</t>
   </si>
   <si>
     <t>BBB- 1</t>
@@ -200,7 +200,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{A76A2464-F4E4-4AB0-81AF-63C89898BD63}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{BBA8C7ED-4229-4A4E-AAB0-0525346543F1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,7 +531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E2A1A-5669-4EE0-9A4E-B253280BF39A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C99BD2-C2EB-4D57-A1CB-63FA8ACF9E89}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2EFF74-EB5A-407C-ACF8-1A375A64DD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A0CF7F6-8904-4B41-9141-6F12885E4A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="1300" windowWidth="19200" windowHeight="11730" xr2:uid="{1B22ACFB-CC4E-4D9A-8FAB-30CF6FEE85A3}"/>
+    <workbookView xWindow="5460" yWindow="1300" windowWidth="19200" windowHeight="11730" xr2:uid="{9BE42042-C807-48B1-A7C7-8E9E429D5791}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">目次!$B$1:$D$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">目次!$B$1:$D$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -67,19 +67,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t xml:space="preserve">    シート3</t>
-  </si>
-  <si>
-    <t>AAA- 3</t>
+    <t>タイトルB</t>
   </si>
   <si>
     <t xml:space="preserve">    Sheet1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    シート２</t>
-  </si>
-  <si>
-    <t>bbb</t>
   </si>
   <si>
     <t>BBB- 1</t>
@@ -200,7 +191,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{BBA8C7ED-4229-4A4E-AAB0-0525346543F1}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{CFF3A1DD-532A-45D0-9817-373214C2E102}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,14 +522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C99BD2-C2EB-4D57-A1CB-63FA8ACF9E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1312AAD3-5A86-4645-BD03-4E74C5729267}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:D19"/>
+  <dimension ref="B1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -594,25 +585,19 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -623,56 +608,29 @@
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="4" t="s">
-        <v>10</v>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A0CF7F6-8904-4B41-9141-6F12885E4A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03DE38C9-2443-43C4-8FC6-466C0F918EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="1300" windowWidth="19200" windowHeight="11730" xr2:uid="{9BE42042-C807-48B1-A7C7-8E9E429D5791}"/>
+    <workbookView xWindow="5900" yWindow="1160" windowWidth="19200" windowHeight="11730" xr2:uid="{589FF3A8-C78E-4D09-86F3-C3C1201E176F}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{CFF3A1DD-532A-45D0-9817-373214C2E102}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{1184FF25-B59F-4A03-B2BA-782B9A792147}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1312AAD3-5A86-4645-BD03-4E74C5729267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06082CF5-FC6D-4A52-8173-95FB778FDD9A}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03DE38C9-2443-43C4-8FC6-466C0F918EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B746B99-27FA-4B5A-9E70-62BF40C1EDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="1160" windowWidth="19200" windowHeight="11730" xr2:uid="{589FF3A8-C78E-4D09-86F3-C3C1201E176F}"/>
+    <workbookView xWindow="6170" yWindow="880" windowWidth="19390" windowHeight="11830" xr2:uid="{D8D623DC-4A6B-4F9C-8BA6-181028005026}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{1184FF25-B59F-4A03-B2BA-782B9A792147}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{BE640703-A37C-41E4-8B7D-66AE749BFE89}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,13 +522,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06082CF5-FC6D-4A52-8173-95FB778FDD9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B749FEA-E4B8-4D07-A6E1-63176EE54464}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B746B99-27FA-4B5A-9E70-62BF40C1EDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{999BE5F3-D8B7-4742-AA56-F30AE3875ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6170" yWindow="880" windowWidth="19390" windowHeight="11830" xr2:uid="{D8D623DC-4A6B-4F9C-8BA6-181028005026}"/>
+    <workbookView xWindow="6170" yWindow="880" windowWidth="19390" windowHeight="11830" xr2:uid="{744415A0-447D-421F-B7BE-03B1F7A4D286}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{BE640703-A37C-41E4-8B7D-66AE749BFE89}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{F089F5A7-9EDE-46A3-A31A-1109A9D2CD16}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B749FEA-E4B8-4D07-A6E1-63176EE54464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471477D1-DC01-47A0-A7FB-EAC3A2F91AB1}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{999BE5F3-D8B7-4742-AA56-F30AE3875ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{401C91B0-EBBE-4D2C-8402-B9E1DDBA0B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6170" yWindow="880" windowWidth="19390" windowHeight="11830" xr2:uid="{744415A0-447D-421F-B7BE-03B1F7A4D286}"/>
+    <workbookView xWindow="6170" yWindow="880" windowWidth="19390" windowHeight="11830" xr2:uid="{2F07F2DF-F98C-4E11-AA3D-66741B31F67D}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{F089F5A7-9EDE-46A3-A31A-1109A9D2CD16}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{BC9A77DC-EAFC-4F94-BBD6-2E069F1E689E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471477D1-DC01-47A0-A7FB-EAC3A2F91AB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12066C0E-166F-466E-8799-D0DD2342CDE8}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{401C91B0-EBBE-4D2C-8402-B9E1DDBA0B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03577B40-3D47-4165-9A98-470D8EA684C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6170" yWindow="880" windowWidth="19390" windowHeight="11830" xr2:uid="{2F07F2DF-F98C-4E11-AA3D-66741B31F67D}"/>
+    <workbookView xWindow="5490" yWindow="1500" windowWidth="19390" windowHeight="11830" xr2:uid="{F91D2B38-424E-477C-A28A-AB9430781DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">目次!$B$1:$D$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">目次!$A$1:$E$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="4"/>
+  </si>
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -98,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +116,28 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,17 +150,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,21 +196,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{BC9A77DC-EAFC-4F94-BBD6-2E069F1E689E}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{1A95466B-77BC-4C3F-ACE7-EAF7CC286460}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,121 +543,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12066C0E-166F-466E-8799-D0DD2342CDE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50448731-440B-4E0D-8F24-E2AB9446CF66}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="59.75" style="2" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="2"/>
-    <col min="5" max="5" width="2.4140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="3.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="59.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3"/>
+    <col min="4" max="4" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.4140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="26.5" x14ac:dyDescent="0.8">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="26.5" x14ac:dyDescent="0.8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="2:4" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="2:4" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="26.5" hidden="1" x14ac:dyDescent="0.8">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="2" t="s">
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="2" t="s">
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;Lヘッダ右&amp;Cヘッダ中央&amp;Rヘッダ左</oddHeader>
     <oddFooter>&amp;L目次-&amp;P&amp;Cフッタ中央&amp;Rフッタ左</oddFooter>

--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03577B40-3D47-4165-9A98-470D8EA684C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C852D125-3C0F-40AD-B4A6-40D4E1E7A474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="1500" windowWidth="19390" windowHeight="11830" xr2:uid="{F91D2B38-424E-477C-A28A-AB9430781DCE}"/>
+    <workbookView xWindow="5990" yWindow="540" windowWidth="19390" windowHeight="12310" xr2:uid="{FA340FFA-4386-4763-B27E-2EF9AAFD2992}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -212,7 +212,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{1A95466B-77BC-4C3F-ACE7-EAF7CC286460}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{29CCC87B-0480-4229-861F-ECAE60FE2D50}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,14 +543,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50448731-440B-4E0D-8F24-E2AB9446CF66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03616B66-F3C9-4C17-AE03-C69BB1A958A0}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C852D125-3C0F-40AD-B4A6-40D4E1E7A474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21ADC605-34D2-4ACD-A41D-DFA0011855CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5990" yWindow="540" windowWidth="19390" windowHeight="12310" xr2:uid="{FA340FFA-4386-4763-B27E-2EF9AAFD2992}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="22620" windowHeight="12550" xr2:uid="{3A349A94-FFD1-4D41-B862-721540FDC31F}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -212,7 +212,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{29CCC87B-0480-4229-861F-ECAE60FE2D50}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{F2349E2B-F32D-40D7-B1B2-4A7600E46482}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03616B66-F3C9-4C17-AE03-C69BB1A958A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11635B79-79DD-4C31-A5F7-AF28230A21E2}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21ADC605-34D2-4ACD-A41D-DFA0011855CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4472A1D7-F6F3-4480-8CFF-F6CD3FF508B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="22620" windowHeight="12550" xr2:uid="{3A349A94-FFD1-4D41-B862-721540FDC31F}"/>
+    <workbookView xWindow="2980" yWindow="3420" windowWidth="22620" windowHeight="12150" xr2:uid="{0C1927FF-5C1D-46A8-89E5-082E87DF5A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -212,7 +212,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{F2349E2B-F32D-40D7-B1B2-4A7600E46482}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{BB102CD7-F8B1-4768-967E-008E3A276886}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11635B79-79DD-4C31-A5F7-AF28230A21E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F9E803-6BB9-4DD6-880D-AB4D3666BE23}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4472A1D7-F6F3-4480-8CFF-F6CD3FF508B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67EDE997-C194-4B06-900A-6AC51F2B7876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="3420" windowWidth="22620" windowHeight="12150" xr2:uid="{0C1927FF-5C1D-46A8-89E5-082E87DF5A4C}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19040" windowHeight="12700" xr2:uid="{BF4B7EE9-49CF-491E-9551-B2D660ECD0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -212,7 +212,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{BB102CD7-F8B1-4768-967E-008E3A276886}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{03C43848-3B5A-4BE6-BE5B-3D53794ED9CD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F9E803-6BB9-4DD6-880D-AB4D3666BE23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A940B97-3938-4439-A95E-C66056A8321A}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/out/目次.xlsx
+++ b/out/目次.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67EDE997-C194-4B06-900A-6AC51F2B7876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6EBF81-C3DD-40D3-8AB0-9C608598D47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19040" windowHeight="12700" xr2:uid="{BF4B7EE9-49CF-491E-9551-B2D660ECD0F0}"/>
+    <workbookView xWindow="6130" yWindow="880" windowWidth="19040" windowHeight="12700" xr2:uid="{0AB80AAF-07D0-498F-A01E-F5CF88014B3D}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -212,7 +212,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{03C43848-3B5A-4BE6-BE5B-3D53794ED9CD}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{3EC94DD8-CEA6-4678-8609-E097D11F7D4D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A940B97-3938-4439-A95E-C66056A8321A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A5697D-F882-4AB8-A320-3DE382636ECA}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
